--- a/projects/solarcell/xrd/XRD-new method/XRD/output.xlsx
+++ b/projects/solarcell/xrd/XRD-new method/XRD/output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/negin/Desktop/output-xrd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/negin/Desktop/paper1-2024/XRD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBD21F9-476F-8C4B-A483-6EEE5F3494D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{214FB1CA-C318-2941-8AA6-DCECD7B25468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>FWHM 1</t>
   </si>
@@ -92,6 +92,42 @@
   </si>
   <si>
     <t>Relative Intensity 6</t>
+  </si>
+  <si>
+    <t>Theta_1</t>
+  </si>
+  <si>
+    <t>Theta_2</t>
+  </si>
+  <si>
+    <t>Theta_3</t>
+  </si>
+  <si>
+    <t>Theta_4</t>
+  </si>
+  <si>
+    <t>Theta_5</t>
+  </si>
+  <si>
+    <t>Theta_6</t>
+  </si>
+  <si>
+    <t>Cos_Theta_1</t>
+  </si>
+  <si>
+    <t>Cos_Theta_2</t>
+  </si>
+  <si>
+    <t>Cos_Theta_3</t>
+  </si>
+  <si>
+    <t>Cos_Theta_4</t>
+  </si>
+  <si>
+    <t>Cos_Theta_5</t>
+  </si>
+  <si>
+    <t>Cos_Theta_6</t>
   </si>
   <si>
     <t>Sherer_1</t>
@@ -506,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AW6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,10 +659,46 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>0.4709640090061899</v>
@@ -671,7 +743,7 @@
         <v>0.55483682389156797</v>
       </c>
       <c r="P2">
-        <v>1.014861959074782</v>
+        <v>1.0018633534275621</v>
       </c>
       <c r="Q2">
         <v>0.19499059345009259</v>
@@ -683,63 +755,99 @@
         <v>0.21280298190811989</v>
       </c>
       <c r="T2">
-        <v>62.648985933835341</v>
+        <v>61.804754792578841</v>
       </c>
       <c r="U2">
-        <v>121.8851728421849</v>
+        <v>55.380488965223371</v>
       </c>
       <c r="V2">
-        <v>126.2761004257497</v>
+        <v>100</v>
       </c>
       <c r="W2">
-        <v>95.418042650448712</v>
+        <v>19.4627932824365</v>
       </c>
       <c r="X2">
-        <v>114.75094474694011</v>
+        <v>35.433097600307327</v>
       </c>
       <c r="Y2">
-        <v>119.7254295546511</v>
+        <v>21.240719223842351</v>
       </c>
       <c r="Z2">
+        <v>16.094831679999999</v>
+      </c>
+      <c r="AA2">
+        <v>17.423138770000001</v>
+      </c>
+      <c r="AB2">
+        <v>18.398163</v>
+      </c>
+      <c r="AC2">
+        <v>24.098466474999999</v>
+      </c>
+      <c r="AD2">
+        <v>28.649281330000001</v>
+      </c>
+      <c r="AE2">
+        <v>31.832769590000002</v>
+      </c>
+      <c r="AF2">
+        <v>0.96080416519539769</v>
+      </c>
+      <c r="AG2">
+        <v>0.95411948376206346</v>
+      </c>
+      <c r="AH2">
+        <v>0.94888613140100497</v>
+      </c>
+      <c r="AI2">
+        <v>0.9128451058955187</v>
+      </c>
+      <c r="AJ2">
+        <v>0.87757091756524375</v>
+      </c>
+      <c r="AK2">
+        <v>0.84959116835486836</v>
+      </c>
+      <c r="AL2">
         <v>0.30289222862549231</v>
       </c>
-      <c r="AA2">
+      <c r="AM2">
         <v>10.89993074660635</v>
       </c>
-      <c r="AB2">
+      <c r="AN2">
         <v>0.40668577303855269</v>
       </c>
-      <c r="AC2">
+      <c r="AO2">
         <v>6.0461934746878949</v>
       </c>
-      <c r="AD2">
+      <c r="AP2">
         <v>0.27881505697537867</v>
       </c>
-      <c r="AE2">
+      <c r="AQ2">
         <v>12.86374887061549</v>
       </c>
-      <c r="AF2">
+      <c r="AR2">
         <v>0.21253705438024881</v>
       </c>
-      <c r="AG2">
+      <c r="AS2">
         <v>22.13760761996361</v>
       </c>
-      <c r="AH2">
+      <c r="AT2">
         <v>0.33162005376853609</v>
       </c>
-      <c r="AI2">
+      <c r="AU2">
         <v>9.0932353007510294</v>
       </c>
-      <c r="AJ2">
+      <c r="AV2">
         <v>0.1957379204146022</v>
       </c>
-      <c r="AK2">
+      <c r="AW2">
         <v>26.100574107108731</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>0.40031940765526142</v>
@@ -796,63 +904,99 @@
         <v>0.24299357053357731</v>
       </c>
       <c r="T3">
-        <v>71.764177808551935</v>
+        <v>70.140478232336179</v>
       </c>
       <c r="U3">
-        <v>130.66956790803181</v>
+        <v>58.82115262480778</v>
       </c>
       <c r="V3">
-        <v>125.8257454610075</v>
+        <v>100</v>
       </c>
       <c r="W3">
-        <v>105.1980764523267</v>
+        <v>21.258647580053939</v>
       </c>
       <c r="X3">
-        <v>230.67062817136059</v>
+        <v>70.56645751390289</v>
       </c>
       <c r="Y3">
-        <v>136.7110054111553</v>
+        <v>24.02920809980121</v>
       </c>
       <c r="Z3">
+        <v>16.078856075000001</v>
+      </c>
+      <c r="AA3">
+        <v>17.423138769219111</v>
+      </c>
+      <c r="AB3">
+        <v>18.381557339179711</v>
+      </c>
+      <c r="AC3">
+        <v>24.09846647519236</v>
+      </c>
+      <c r="AD3">
+        <v>28.618034597032501</v>
+      </c>
+      <c r="AE3">
+        <v>31.899177503106358</v>
+      </c>
+      <c r="AF3">
+        <v>0.96088142646770291</v>
+      </c>
+      <c r="AG3">
+        <v>0.95411948376614431</v>
+      </c>
+      <c r="AH3">
+        <v>0.94897756522510845</v>
+      </c>
+      <c r="AI3">
+        <v>0.91284510589414791</v>
+      </c>
+      <c r="AJ3">
+        <v>0.87783225740508541</v>
+      </c>
+      <c r="AK3">
+        <v>0.84897927342133239</v>
+      </c>
+      <c r="AL3">
         <v>0.35631514596601288</v>
       </c>
-      <c r="AA3">
+      <c r="AM3">
         <v>7.8764665543371484</v>
       </c>
-      <c r="AB3">
+      <c r="AN3">
         <v>0.40668577303681319</v>
       </c>
-      <c r="AC3">
+      <c r="AO3">
         <v>6.0461934747396162</v>
       </c>
-      <c r="AD3">
+      <c r="AP3">
         <v>0.27878819319291309</v>
       </c>
-      <c r="AE3">
+      <c r="AQ3">
         <v>12.86622806886813</v>
       </c>
-      <c r="AF3">
+      <c r="AR3">
         <v>0.31880558157085193</v>
       </c>
-      <c r="AG3">
+      <c r="AS3">
         <v>9.8389367199542797</v>
       </c>
-      <c r="AH3">
+      <c r="AT3">
         <v>0.30138302455617327</v>
       </c>
-      <c r="AI3">
+      <c r="AU3">
         <v>11.009368946585219</v>
       </c>
-      <c r="AJ3">
+      <c r="AV3">
         <v>0.31162567694207988</v>
       </c>
-      <c r="AK3">
+      <c r="AW3">
         <v>10.29754100842629</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>0.23548200450309489</v>
@@ -912,60 +1056,96 @@
         <v>100</v>
       </c>
       <c r="U4">
-        <v>100</v>
+        <v>46.057256672976507</v>
       </c>
       <c r="V4">
-        <v>100</v>
+        <v>81.314777657519784</v>
       </c>
       <c r="W4">
-        <v>100</v>
+        <v>20.67601432892479</v>
       </c>
       <c r="X4">
-        <v>100</v>
+        <v>31.300048369416832</v>
       </c>
       <c r="Y4">
-        <v>100</v>
+        <v>17.983531179014971</v>
       </c>
       <c r="Z4">
+        <v>16.04689506005073</v>
+      </c>
+      <c r="AA4">
+        <v>17.407345730605289</v>
+      </c>
+      <c r="AB4">
+        <v>18.331731457307662</v>
+      </c>
+      <c r="AC4">
+        <v>24.13048985149932</v>
+      </c>
+      <c r="AD4">
+        <v>28.55548948013422</v>
+      </c>
+      <c r="AE4">
+        <v>31.88258413220877</v>
+      </c>
+      <c r="AF4">
+        <v>0.96103577220082148</v>
+      </c>
+      <c r="AG4">
+        <v>0.95420198149573521</v>
+      </c>
+      <c r="AH4">
+        <v>0.94925143724775229</v>
+      </c>
+      <c r="AI4">
+        <v>0.91261675563513511</v>
+      </c>
+      <c r="AJ4">
+        <v>0.87835458467990846</v>
+      </c>
+      <c r="AK4">
+        <v>0.849132274760799</v>
+      </c>
+      <c r="AL4">
         <v>0.60563846484556683</v>
       </c>
-      <c r="AA4">
+      <c r="AM4">
         <v>2.726296588424284</v>
       </c>
-      <c r="AB4">
+      <c r="AN4">
         <v>1.2199518362454389</v>
       </c>
-      <c r="AC4">
+      <c r="AO4">
         <v>0.67191545394422802</v>
       </c>
-      <c r="AD4">
+      <c r="AP4">
         <v>0.61315706976956441</v>
       </c>
-      <c r="AE4">
+      <c r="AQ4">
         <v>2.6598461670672262</v>
       </c>
-      <c r="AF4">
+      <c r="AR4">
         <v>0.57979154810848266</v>
       </c>
-      <c r="AG4">
+      <c r="AS4">
         <v>2.9747894985623491</v>
       </c>
-      <c r="AH4">
+      <c r="AT4">
         <v>0.44176557690118401</v>
       </c>
-      <c r="AI4">
+      <c r="AU4">
         <v>5.1240841837527658</v>
       </c>
-      <c r="AJ4">
+      <c r="AV4">
         <v>0.45696863887811467</v>
       </c>
-      <c r="AK4">
+      <c r="AW4">
         <v>4.7888056056155239</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>0.42386760810557078</v>
@@ -1022,63 +1202,99 @@
         <v>0.19282268382870749</v>
       </c>
       <c r="T5">
-        <v>80.816396588233374</v>
+        <v>80.022611043547457</v>
       </c>
       <c r="U5">
-        <v>82.326663821865679</v>
+        <v>37.544974899660609</v>
       </c>
       <c r="V5">
-        <v>124.1987674035862</v>
+        <v>100</v>
       </c>
       <c r="W5">
-        <v>73.891098777515822</v>
+        <v>15.12767496211011</v>
       </c>
       <c r="X5">
-        <v>113.67311582843141</v>
+        <v>35.230272992105107</v>
       </c>
       <c r="Y5">
-        <v>108.4842817627444</v>
+        <v>19.317682579956529</v>
       </c>
       <c r="Z5">
+        <v>16.014921300000001</v>
+      </c>
+      <c r="AA5">
+        <v>17.423138769219111</v>
+      </c>
+      <c r="AB5">
+        <v>18.331731457307662</v>
+      </c>
+      <c r="AC5">
+        <v>24.05041699104811</v>
+      </c>
+      <c r="AD5">
+        <v>28.618034597032501</v>
+      </c>
+      <c r="AE5">
+        <v>31.832769587558161</v>
+      </c>
+      <c r="AF5">
+        <v>0.96118988025930652</v>
+      </c>
+      <c r="AG5">
+        <v>0.95411948376614431</v>
+      </c>
+      <c r="AH5">
+        <v>0.94925143724775229</v>
+      </c>
+      <c r="AI5">
+        <v>0.91318719915464386</v>
+      </c>
+      <c r="AJ5">
+        <v>0.87783225740508541</v>
+      </c>
+      <c r="AK5">
+        <v>0.84959116837734694</v>
+      </c>
+      <c r="AL5">
         <v>0.33641186806939671</v>
       </c>
-      <c r="AA5">
+      <c r="AM5">
         <v>8.8360340909650485</v>
       </c>
-      <c r="AB5">
+      <c r="AN5">
         <v>0.35884038797365869</v>
       </c>
-      <c r="AC5">
+      <c r="AO5">
         <v>7.7659996186655524</v>
       </c>
-      <c r="AD5">
+      <c r="AP5">
         <v>0.27870775898616562</v>
       </c>
-      <c r="AE5">
+      <c r="AQ5">
         <v>12.873655448605369</v>
       </c>
-      <c r="AF5">
+      <c r="AR5">
         <v>0.2197835533409179</v>
       </c>
-      <c r="AG5">
+      <c r="AS5">
         <v>20.701871995620898</v>
       </c>
-      <c r="AH5">
+      <c r="AT5">
         <v>0.21388472710438111</v>
       </c>
-      <c r="AI5">
+      <c r="AU5">
         <v>21.859511482785951</v>
       </c>
-      <c r="AJ5">
+      <c r="AV5">
         <v>0.19573792040942339</v>
       </c>
-      <c r="AK5">
+      <c r="AW5">
         <v>26.100574108489869</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>0.25903020495340451</v>
@@ -1135,57 +1351,93 @@
         <v>0.17413304125705689</v>
       </c>
       <c r="T6">
-        <v>101.1339115956724</v>
+        <v>100</v>
       </c>
       <c r="U6">
-        <v>138.35582668773191</v>
+        <v>63.008438232220023</v>
       </c>
       <c r="V6">
-        <v>91.55704125030816</v>
+        <v>73.614679139610686</v>
       </c>
       <c r="W6">
-        <v>80.729497338928866</v>
+        <v>16.50449604302672</v>
       </c>
       <c r="X6">
-        <v>46.776173782675983</v>
+        <v>14.476810783185959</v>
       </c>
       <c r="Y6">
-        <v>97.969271751842086</v>
+        <v>17.420798081837798</v>
       </c>
       <c r="Z6">
+        <v>16.078856075000001</v>
+      </c>
+      <c r="AA6">
+        <v>17.43894074864021</v>
+      </c>
+      <c r="AB6">
+        <v>18.381557339179711</v>
+      </c>
+      <c r="AC6">
+        <v>24.09846647519236</v>
+      </c>
+      <c r="AD6">
+        <v>28.68051309631031</v>
+      </c>
+      <c r="AE6">
+        <v>31.88258413220877</v>
+      </c>
+      <c r="AF6">
+        <v>0.96088142646770291</v>
+      </c>
+      <c r="AG6">
+        <v>0.95403686677929522</v>
+      </c>
+      <c r="AH6">
+        <v>0.94897756522510845</v>
+      </c>
+      <c r="AI6">
+        <v>0.91284510589414791</v>
+      </c>
+      <c r="AJ6">
+        <v>0.87730944208684369</v>
+      </c>
+      <c r="AK6">
+        <v>0.849132274760799</v>
+      </c>
+      <c r="AL6">
         <v>0.55066886194747444</v>
       </c>
-      <c r="AA6">
+      <c r="AM6">
         <v>3.2977593531999831</v>
       </c>
-      <c r="AB6">
+      <c r="AN6">
         <v>0.53050564032254977</v>
       </c>
-      <c r="AC6">
+      <c r="AO6">
         <v>3.5532027426462691</v>
       </c>
-      <c r="AD6">
+      <c r="AP6">
         <v>0.55757638638582629</v>
       </c>
-      <c r="AE6">
+      <c r="AQ6">
         <v>3.216557017217033</v>
       </c>
-      <c r="AF6">
+      <c r="AR6">
         <v>0.37506539008335521</v>
       </c>
-      <c r="AG6">
+      <c r="AS6">
         <v>7.1086317801669674</v>
       </c>
-      <c r="AH6">
+      <c r="AT6">
         <v>0.39025751838879541</v>
       </c>
-      <c r="AI6">
+      <c r="AU6">
         <v>6.5659480587095906</v>
       </c>
-      <c r="AJ6">
+      <c r="AV6">
         <v>0.45696863887811467</v>
       </c>
-      <c r="AK6">
+      <c r="AW6">
         <v>4.7888056056155239</v>
       </c>
     </row>
